--- a/data/trans_dic/P14_x_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14_x_R-Provincia-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,26</t>
+          <t>2,7; 7,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,82</t>
+          <t>0,68; 3,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,19</t>
+          <t>10,34; 18,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,21</t>
+          <t>3,52; 7,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,78</t>
+          <t>7,32; 12,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,97</t>
+          <t>2,49; 4,91</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,79</t>
+          <t>1,7; 4,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,17</t>
+          <t>3,88; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,89</t>
+          <t>7,18; 12,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,47</t>
+          <t>11,14; 16,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,33</t>
+          <t>5,09; 8,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,7</t>
+          <t>8,2; 11,67</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,3</t>
+          <t>0,31; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,08</t>
+          <t>6,12; 11,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,22</t>
+          <t>5,4; 11,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,5</t>
+          <t>12,48; 18,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,63</t>
+          <t>3,17; 6,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,38</t>
+          <t>10,2; 14,82</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,31</t>
+          <t>1,4; 5,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,3</t>
+          <t>5,49; 12,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,75</t>
+          <t>4,33; 9,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,71</t>
+          <t>7,43; 12,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,57</t>
+          <t>3,34; 6,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,21</t>
+          <t>7,27; 11,53</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,81</t>
+          <t>2,83; 9,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,92</t>
+          <t>0,62; 3,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,53</t>
+          <t>8,92; 17,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,1</t>
+          <t>4,51; 10,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,0</t>
+          <t>6,53; 11,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,55</t>
+          <t>3,27; 6,77</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,09</t>
+          <t>1,01; 4,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,62</t>
+          <t>7,3; 13,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 17,15</t>
+          <t>9,1; 17,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,73</t>
+          <t>11,71; 18,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,33</t>
+          <t>5,66; 10,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,08</t>
+          <t>10,55; 15,24</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,65</t>
+          <t>1,2; 3,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,11</t>
+          <t>5,52; 9,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,97</t>
+          <t>6,43; 11,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,76</t>
+          <t>8,27; 16,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,09</t>
+          <t>4,27; 6,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,63</t>
+          <t>8,21; 12,66</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,58</t>
+          <t>2,98; 5,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,67</t>
+          <t>3,5; 6,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,06</t>
+          <t>9,28; 14,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,73; 13,68</t>
+          <t>9,78; 13,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,55</t>
+          <t>6,53; 9,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,88; 9,53</t>
+          <t>6,92; 9,52</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,72; 3,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,13</t>
+          <t>5,37; 7,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,19; 11,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,9</t>
+          <t>10,72; 13,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,18; 7,38</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,49; 9,89</t>
+          <t>8,53; 9,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P14_x_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14_x_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,88</t>
+          <t>2,77; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 18,88</t>
+          <t>10,51; 19,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,72</t>
+          <t>7,23; 12,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,79</t>
+          <t>1,82; 5,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,72</t>
+          <t>7,2; 12,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,29</t>
+          <t>5,04; 8,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,31</t>
+          <t>0,39; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,23</t>
+          <t>5,27; 11,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,54</t>
+          <t>3,23; 6,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,2</t>
+          <t>1,45; 5,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,53</t>
+          <t>4,3; 9,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,63</t>
+          <t>3,35; 6,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 9,01</t>
+          <t>2,83; 8,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 17,69</t>
+          <t>9,02; 18,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,94</t>
+          <t>6,73; 12,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,79</t>
+          <t>1,09; 5,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,37</t>
+          <t>8,99; 17,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,42</t>
+          <t>5,72; 10,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,83</t>
+          <t>1,21; 3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 11,02</t>
+          <t>6,3; 10,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,89</t>
+          <t>4,26; 6,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,91</t>
+          <t>2,99; 5,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 14,13</t>
+          <t>9,2; 14,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,52</t>
+          <t>6,56; 9,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,92</t>
+          <t>2,66; 3,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,24</t>
+          <t>9,26; 11,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,38</t>
+          <t>6,16; 7,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
